--- a/v2/public/data/FMA Media List.xlsx
+++ b/v2/public/data/FMA Media List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cassettes" sheetId="1" state="visible" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
   <si>
     <t>ID</t>
   </si>
@@ -1400,6 +1400,12 @@
   </si>
   <si>
     <t xml:space="preserve">Hard Drone / Soft Drone / Brad / Bleeps cars voices</t>
+  </si>
+  <si>
+    <t>FMACM14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JB Pat Multi</t>
   </si>
   <si>
     <t xml:space="preserve">Source Format</t>
@@ -2028,7 +2034,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView topLeftCell="I5" zoomScale="64" workbookViewId="0">
-      <selection activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection activeCell="C103" activeCellId="0" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="12"/>
@@ -6201,10 +6207,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection activeCell="C28" activeCellId="0" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="32" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="32" defaultRowHeight="12"/>
   <cols>
     <col customWidth="1" min="1" max="1" style="1" width="15.738300000000001"/>
     <col customWidth="1" min="2" max="2" style="1" width="19.503900000000002"/>
@@ -6219,7 +6225,7 @@
     <col customWidth="1" min="11" max="257" style="1" width="32.828099999999999"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" s="1" customFormat="1" ht="13.1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6270,7 +6276,7 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1">
+    <row r="2" s="1" customFormat="1" ht="13.1">
       <c r="A2" s="1" t="s">
         <v>409</v>
       </c>
@@ -6297,7 +6303,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1">
+    <row r="3" s="1" customFormat="1" ht="13.1">
       <c r="A3" s="1" t="s">
         <v>414</v>
       </c>
@@ -6324,7 +6330,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1">
+    <row r="4" s="1" customFormat="1" ht="13.1">
       <c r="A4" s="1" t="s">
         <v>419</v>
       </c>
@@ -6356,7 +6362,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1">
+    <row r="5" s="1" customFormat="1" ht="13.1">
       <c r="A5" s="1" t="s">
         <v>424</v>
       </c>
@@ -6386,7 +6392,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1">
+    <row r="6" s="1" customFormat="1" ht="13.1">
       <c r="A6" s="1" t="s">
         <v>429</v>
       </c>
@@ -6416,7 +6422,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1">
+    <row r="7" s="1" customFormat="1" ht="13.1">
       <c r="A7" s="1" t="s">
         <v>433</v>
       </c>
@@ -6448,7 +6454,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1">
+    <row r="8" s="1" customFormat="1" ht="13.1">
       <c r="A8" s="1" t="s">
         <v>436</v>
       </c>
@@ -6476,7 +6482,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1">
+    <row r="9" s="1" customFormat="1" ht="13.1">
       <c r="A9" s="1" t="s">
         <v>440</v>
       </c>
@@ -6503,7 +6509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1">
+    <row r="10" s="1" customFormat="1" ht="13.1">
       <c r="A10" s="1" t="s">
         <v>443</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1">
+    <row r="11" s="1" customFormat="1" ht="13.1">
       <c r="A11" s="1" t="s">
         <v>447</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1">
+    <row r="12" s="1" customFormat="1" ht="13.1">
       <c r="A12" s="1" t="s">
         <v>452</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="13" ht="12.75">
+    <row r="13" ht="13.1">
       <c r="A13" s="1" t="s">
         <v>455</v>
       </c>
@@ -6602,15 +6608,15 @@
         <v>456</v>
       </c>
     </row>
-    <row r="14" ht="12.75">
+    <row r="14" ht="13.1">
       <c r="A14" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>448</v>
+        <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>411</v>
@@ -6623,6 +6629,23 @@
       </c>
       <c r="H14" s="1" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="15" ht="13.1">
+      <c r="A15" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -6666,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6711,16 +6734,16 @@
     </row>
     <row r="2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>98</v>
@@ -6729,7 +6752,7 @@
         <v>170</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H2" s="2">
         <v>34486</v>
@@ -6737,59 +6760,59 @@
     </row>
     <row r="3" ht="12.75">
       <c r="A3" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>465</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>463</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="A4" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>406</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="A5" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>98</v>
@@ -6798,7 +6821,7 @@
         <v>406</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H5" s="2">
         <v>38193</v>
@@ -6806,33 +6829,33 @@
     </row>
     <row r="6" ht="12.75">
       <c r="A6" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>285</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="A7" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -6841,13 +6864,13 @@
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H7" s="2">
         <v>1990</v>
@@ -6855,10 +6878,10 @@
     </row>
     <row r="8" ht="12.75">
       <c r="A8" s="1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -6867,21 +6890,21 @@
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" ht="12.75">
       <c r="A9" s="1" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -6890,16 +6913,16 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/v2/public/data/FMA Media List.xlsx
+++ b/v2/public/data/FMA Media List.xlsx
@@ -4,7 +4,7 @@
   <fileSharing readOnlyRecommended="0"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="4" showHorizontalScroll="1" showVerticalScroll="1"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="2" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cassettes" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="663">
   <si>
     <r>
       <rPr>
@@ -5401,6 +5401,9 @@
     </r>
   </si>
   <si>
+    <t>Digitised</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="false"/>
@@ -5489,6 +5492,141 @@
     </r>
   </si>
   <si>
+    <t>FMADAT02</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>FMADAT02.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backing Tracks</t>
+  </si>
+  <si>
+    <t>FMADAT03.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balloon Fest.</t>
+  </si>
+  <si>
+    <t>FMADAT04.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Backing Tracks April 2004</t>
+  </si>
+  <si>
+    <t>FMADAT05.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixes April 02</t>
+  </si>
+  <si>
+    <t>FMADAT06.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trauma With Balloons / Work Tape</t>
+  </si>
+  <si>
+    <t>FMADAT07.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XMAS 2003</t>
+  </si>
+  <si>
+    <t>2003-12-24</t>
+  </si>
+  <si>
+    <t>FMADAT08.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steve Wilson 31/10/04</t>
+  </si>
+  <si>
+    <t>FMADAT09.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT10</t>
+  </si>
+  <si>
+    <t>Supergrass</t>
+  </si>
+  <si>
+    <t>FMADAT10.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT11</t>
+  </si>
+  <si>
+    <t>2002-08-25</t>
+  </si>
+  <si>
+    <t>FMADAT11.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Tunes April 2005</t>
+  </si>
+  <si>
+    <t>2005-04-23</t>
+  </si>
+  <si>
+    <t>FMADAT12.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT13</t>
+  </si>
+  <si>
+    <t>Sumosonic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Album Mixes</t>
+  </si>
+  <si>
+    <t>FMADAT13.jpg</t>
+  </si>
+  <si>
+    <t>FMADAT14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio Aquatic Spacemen</t>
+  </si>
+  <si>
+    <t>Spacemen/Traffic</t>
+  </si>
+  <si>
+    <t>FMADAT14.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="false"/>
@@ -6444,9 +6582,6 @@
     <t>D8</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Live</t>
   </si>
   <si>
@@ -6472,9 +6607,6 @@
   </si>
   <si>
     <t>FMAV11</t>
-  </si>
-  <si>
-    <t>Wilson</t>
   </si>
   <si>
     <t xml:space="preserve">Balloon Festival</t>
@@ -6677,7 +6809,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
@@ -6693,10 +6825,11 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0" quotePrefix="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="0" quotePrefix="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="14" xfId="0" applyNumberFormat="1" applyProtection="0" quotePrefix="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Default" xfId="0" builtinId="0"/>
@@ -10414,7 +10547,7 @@
   </sheetPr>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10423,7 +10556,9 @@
     <col customWidth="1" min="2" max="2" width="15.0136"/>
     <col customWidth="1" min="3" max="3" width="19.002199999999998"/>
     <col customWidth="1" min="4" max="4" width="16.081800000000001"/>
-    <col customWidth="1" min="5" max="257" width="19.002199999999998"/>
+    <col customWidth="1" min="5" max="5" width="19.002199999999998"/>
+    <col customWidth="1" min="6" max="6" width="27.00390625"/>
+    <col customWidth="1" min="7" max="257" width="19.002199999999998"/>
     <col customWidth="1" min="258" max="1124" width="17.679200000000002"/>
   </cols>
   <sheetData>
@@ -10432,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>464</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -10450,7 +10585,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -10462,32 +10597,264 @@
     </row>
     <row r="2" ht="12.800000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="3" ht="12.75" customHeight="1"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" ht="13.1">
+      <c r="A4" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" ht="13.1">
+      <c r="A5" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="6" ht="13.1">
+      <c r="A6" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="7" ht="13.1">
+      <c r="A7" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" ht="13.1">
+      <c r="A8" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="9" ht="13.1">
+      <c r="A9" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" ht="13.1">
+      <c r="A10" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" ht="13.1">
+      <c r="A11" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="12" ht="13.1">
+      <c r="A12" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F12" s="10">
+        <v>45871</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="13" ht="13.1">
+      <c r="A13" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" ht="13.1">
+      <c r="A14" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="15" ht="13.1">
+      <c r="A15" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.78739999999999988" right="0.78739999999999988" top="1.8126000000000002" bottom="1.8126000000000002" header="1.0251999999999999" footer="1.0251999999999999"/>
@@ -10552,7 +10919,7 @@
         <v>419</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>472</v>
+        <v>518</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -10561,26 +10928,26 @@
     </row>
     <row r="2" ht="12.800000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>476</v>
+        <v>522</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -10588,141 +10955,141 @@
     </row>
     <row r="3" ht="12.800000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>478</v>
+        <v>524</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>479</v>
+        <v>525</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>480</v>
+        <v>526</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>481</v>
+        <v>527</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>482</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" ht="12.800000000000001" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>483</v>
+        <v>529</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>485</v>
+        <v>531</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>486</v>
+        <v>532</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>487</v>
+        <v>533</v>
       </c>
     </row>
     <row r="5" ht="12.800000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>488</v>
+        <v>534</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="G5" s="3">
         <v>1990</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>490</v>
+        <v>536</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>492</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" ht="12.800000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>493</v>
+        <v>539</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>494</v>
+        <v>540</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>495</v>
+        <v>541</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>496</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" ht="12.800000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>497</v>
+        <v>543</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>498</v>
+        <v>544</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>23</v>
@@ -10734,59 +11101,59 @@
         <v>135</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>499</v>
+        <v>545</v>
       </c>
     </row>
     <row r="8" ht="12.800000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>500</v>
+        <v>546</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>501</v>
+        <v>547</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>502</v>
+        <v>548</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>503</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" ht="12.800000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>504</v>
+        <v>550</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="G9" s="3">
         <v>89</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>506</v>
+        <v>552</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -10794,67 +11161,67 @@
     </row>
     <row r="10" ht="12.800000000000001" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>507</v>
+        <v>553</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>508</v>
+        <v>554</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>509</v>
+        <v>555</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11" ht="12.800000000000001" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>511</v>
+        <v>557</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>512</v>
+        <v>558</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>513</v>
+        <v>559</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>514</v>
+        <v>560</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>515</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12" ht="12.800000000000001" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>516</v>
+        <v>562</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>286</v>
@@ -10863,86 +11230,86 @@
         <v>236</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" ht="12.800000000000001" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>519</v>
+        <v>565</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>351</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>520</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" ht="12.800000000000001" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>521</v>
+        <v>567</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>171</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>522</v>
+        <v>568</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>523</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" ht="12.800000000000001" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>524</v>
+        <v>570</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>474</v>
+        <v>520</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>475</v>
+        <v>521</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>525</v>
+        <v>571</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>526</v>
+        <v>572</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>527</v>
+        <v>573</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1"/>
@@ -10964,7 +11331,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="64" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="64" workbookViewId="0">
       <selection activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -10988,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>528</v>
+        <v>574</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -11012,21 +11379,21 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>529</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" ht="12.800000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>530</v>
+        <v>576</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>98</v>
@@ -11035,7 +11402,7 @@
         <v>171</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>533</v>
+        <v>579</v>
       </c>
       <c r="H2" s="6">
         <v>34486</v>
@@ -11043,57 +11410,57 @@
     </row>
     <row r="3" ht="12.800000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>534</v>
+        <v>580</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>535</v>
+        <v>581</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="2" t="s">
-        <v>536</v>
+        <v>582</v>
       </c>
     </row>
     <row r="4" ht="12.800000000000001" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="H4" s="8"/>
+        <v>584</v>
+      </c>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" ht="12.800000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>539</v>
+        <v>585</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -11102,48 +11469,48 @@
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>540</v>
+        <v>586</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>541</v>
+        <v>587</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>542</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" ht="12.800000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>543</v>
+        <v>589</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>286</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>544</v>
+        <v>590</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="H6" s="8"/>
+        <v>591</v>
+      </c>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" ht="12.800000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>546</v>
+        <v>592</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -11152,24 +11519,24 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>548</v>
+        <v>594</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>550</v>
+        <v>595</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="8" ht="12.800000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>551</v>
+        <v>597</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>531</v>
+        <v>577</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -11178,413 +11545,413 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>547</v>
+        <v>593</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>552</v>
+        <v>598</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="I8" s="8"/>
+        <v>588</v>
+      </c>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" ht="12.800000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>554</v>
+        <v>600</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>532</v>
+        <v>578</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>556</v>
+        <v>602</v>
       </c>
       <c r="H9" s="6">
         <v>38193</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>564</v>
+      <c r="A10" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>608</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="11" ht="13.1">
-      <c r="A11" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>567</v>
+      <c r="A11" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="12" ht="13.1">
-      <c r="A12" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>572</v>
+      <c r="A12" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="13" ht="13.1">
-      <c r="A13" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="I13" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>577</v>
+      <c r="A13" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="14" ht="13.1">
-      <c r="A14" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>581</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>582</v>
+      <c r="A14" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="15" ht="13.1">
-      <c r="A15" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>585</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>586</v>
+      <c r="A15" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>630</v>
       </c>
     </row>
     <row r="16" ht="13.1">
-      <c r="A16" s="10" t="s">
-        <v>587</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>588</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>590</v>
+      <c r="A16" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="17" ht="13.1">
-      <c r="A17" s="10" t="s">
-        <v>591</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>592</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>593</v>
-      </c>
-      <c r="J17" s="10"/>
+      <c r="A17" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="18" ht="13.1">
-      <c r="A18" s="10" t="s">
-        <v>594</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>597</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>599</v>
+      <c r="A18" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="19" ht="13.1">
-      <c r="A19" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>601</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>602</v>
+      <c r="A19" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="20" ht="13.1">
-      <c r="A20" s="10" t="s">
-        <v>603</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>604</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="A20" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>605</v>
       </c>
+      <c r="F20" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="21" ht="13.1">
-      <c r="A21" s="10" t="s">
-        <v>606</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>607</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>608</v>
+      <c r="A21" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="22" ht="13.1">
-      <c r="A22" s="10" t="s">
-        <v>609</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>610</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>611</v>
+      <c r="A22" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="23" ht="13.1">
-      <c r="A23" s="10" t="s">
-        <v>612</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>613</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>598</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>614</v>
+      <c r="A23" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="24" ht="13.1">
-      <c r="A24" s="10" t="s">
-        <v>615</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>595</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>616</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>618</v>
+      <c r="A24" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>661</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/v2/public/data/FMA Media List.xlsx
+++ b/v2/public/data/FMA Media List.xlsx
@@ -1,7 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileSharing readOnlyRecommended="0"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="724">
   <si>
     <r>
       <rPr>
@@ -4773,6 +4772,9 @@
     </r>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="false"/>
@@ -4785,16 +4787,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="false"/>
-        <i val="false"/>
-        <sz val="11"/>
-        <color indexed="64"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">November 93</t>
-    </r>
+    <t>1993-11</t>
   </si>
   <si>
     <r>
@@ -4821,6 +4814,9 @@
     </r>
   </si>
   <si>
+    <t>199311_FMAC82_London_Mixes_1.jpg,199311_FMAC82_London_Mixes_2.jpg</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="false"/>
@@ -4833,6 +4829,9 @@
     </r>
   </si>
   <si>
+    <t>UNASSIGNED</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b val="false"/>
@@ -5553,16 +5552,28 @@
     </r>
   </si>
   <si>
-    <t>Live</t>
-  </si>
-  <si>
-    <t>JBC</t>
-  </si>
-  <si>
-    <t>1984-04-23</t>
-  </si>
-  <si>
-    <t>FMACD07_19850423.jpg</t>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <sz val="11"/>
+        <color indexed="64"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>1984-04-23</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="false"/>
+        <i val="false"/>
+        <sz val="11"/>
+        <color indexed="64"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>FMACD07_19850423.jpg</t>
+    </r>
   </si>
   <si>
     <r>
@@ -9080,16 +9091,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="11.000000"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
+  <fonts count="3">
     <font>
       <b val="0"/>
       <i val="0"/>
       <sz val="11.000000"/>
+      <color indexed="64"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -9100,15 +9107,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <sz val="10.000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <sz val="11.000000"/>
+      <sz val="5.500000"/>
       <color indexed="64"/>
       <name val="Arial"/>
     </font>
@@ -9133,36 +9132,36 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0" quotePrefix="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="16" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9640,8 +9639,8 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showGridLines="1" topLeftCell="I57" zoomScale="64" workbookViewId="0">
+      <selection activeCell="J81" activeCellId="0" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9658,6 +9657,7 @@
     <col customWidth="1" min="10" max="10" width="12.1716"/>
     <col customWidth="1" min="11" max="11" width="112.40600000000001"/>
     <col customWidth="1" min="12" max="1024" width="12.1716"/>
+    <col customWidth="1" min="1025" max="1125" width="8.6639999999999997"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.800000000000001" customHeight="1">
@@ -10222,7 +10222,7 @@
       <c r="I20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>107</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -10453,7 +10453,7 @@
       <c r="I27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" s="4" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10834,7 +10834,7 @@
       <c r="I39" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J39" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
       <c r="F45" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G45" s="6">
+      <c r="G45" s="5">
         <v>34272</v>
       </c>
     </row>
@@ -11476,7 +11476,7 @@
       <c r="F60" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G60" s="6"/>
+      <c r="G60" s="5"/>
       <c r="H60" s="2" t="s">
         <v>283</v>
       </c>
@@ -12069,40 +12069,40 @@
       <c r="A81" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>350</v>
+      <c r="B81" s="6" t="s">
+        <v>370</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="G81" s="1" t="s">
         <v>371</v>
       </c>
+      <c r="G81" s="7" t="s">
+        <v>372</v>
+      </c>
       <c r="H81" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>25</v>
+        <v>374</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="82" ht="12.800000000000001" customHeight="1">
       <c r="A82" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>350</v>
+        <v>376</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>23</v>
@@ -12113,16 +12113,16 @@
     </row>
     <row r="83" ht="12.75" customHeight="1">
       <c r="A83" s="2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G83" s="6"/>
+      <c r="G83" s="5"/>
     </row>
     <row r="84" ht="12.800000000000001" customHeight="1">
       <c r="A84" s="2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>350</v>
@@ -12135,13 +12135,13 @@
         <v>41</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G84" s="3">
         <v>31260</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>23</v>
@@ -12150,53 +12150,53 @@
         <v>25</v>
       </c>
       <c r="K84" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" ht="12.800000000000001" customHeight="1">
       <c r="A85" s="2" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>350</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="J85" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K85" s="2" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" ht="12.800000000000001" customHeight="1">
       <c r="A86" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>350</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>23</v>
@@ -12205,24 +12205,24 @@
         <v>25</v>
       </c>
       <c r="K86" s="2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" ht="12.800000000000001" customHeight="1">
       <c r="A87" s="2" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>350</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="G87" s="3">
         <v>34966</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>23</v>
@@ -12233,7 +12233,7 @@
     </row>
     <row r="88" ht="12.800000000000001" customHeight="1">
       <c r="A88" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>350</v>
@@ -12246,27 +12246,27 @@
         <v>41</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G88" s="3">
         <v>32038</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="J88" s="2" t="s">
         <v>25</v>
       </c>
       <c r="K88" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" ht="12.800000000000001" customHeight="1">
       <c r="A89" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>350</v>
@@ -12279,13 +12279,13 @@
         <v>41</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G89" s="3">
         <v>34272</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>23</v>
@@ -12297,7 +12297,7 @@
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2" t="s">
@@ -12307,16 +12307,16 @@
         <v>170</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="J90" s="2" t="s">
         <v>25</v>
@@ -12325,7 +12325,7 @@
     <row r="91" ht="12.800000000000001" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2" t="s">
@@ -12335,16 +12335,16 @@
         <v>41</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="G91" s="3">
         <v>33740</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="I91" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>25</v>
@@ -12352,13 +12352,13 @@
     </row>
     <row r="92" ht="12.800000000000001" customHeight="1">
       <c r="A92" s="2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>350</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>23</v>
@@ -12375,13 +12375,13 @@
     </row>
     <row r="93" ht="12.800000000000001" customHeight="1">
       <c r="A93" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>350</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>23</v>
@@ -12398,13 +12398,13 @@
     </row>
     <row r="94" ht="12.800000000000001" customHeight="1">
       <c r="A94" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>350</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>23</v>
@@ -12421,13 +12421,13 @@
     </row>
     <row r="95" ht="12.800000000000001" customHeight="1">
       <c r="A95" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>350</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>23</v>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="96" ht="12.800000000000001" customHeight="1"/>
     <row r="97" ht="12.75" customHeight="1"/>
-    <row r="98" ht="13.1"/>
+    <row r="98" ht="15" customHeight="1"/>
     <row r="99" ht="13.1"/>
     <row r="100" ht="13.1"/>
     <row r="101" ht="13.1"/>
@@ -12574,11 +12574,12 @@
     <row r="222" ht="13.1"/>
     <row r="223" ht="13.1"/>
     <row r="224" ht="12.75" customHeight="1">
-      <c r="G224" s="6"/>
-    </row>
+      <c r="G224" s="5"/>
+    </row>
+    <row r="225" ht="15" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.748" right="0.748" top="1.2796000000000001" bottom="1.2796000000000001" header="0.9839" footer="0.9839"/>
+  <pageMargins left="0.74798399999999998" right="0.74798399999999998" top="1.2794499999999998" bottom="1.2794499999999998" header="0.78750000000000009" footer="0.78750000000000009"/>
   <pageSetup paperSize="9" scale="90" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
@@ -12591,8 +12592,8 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="I11" activeCellId="0" sqref="I11"/>
+    <sheetView showGridLines="1" zoomScale="64" workbookViewId="0">
+      <selection activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12600,6 +12601,7 @@
     <col customWidth="1" min="1" max="1" width="11.0152"/>
     <col customWidth="1" min="2" max="2" width="63.523600000000002"/>
     <col customWidth="1" min="3" max="1024" width="11.0152"/>
+    <col customWidth="1" min="1025" max="1125" width="8.6639999999999997"/>
   </cols>
   <sheetData>
     <row r="1" ht="13" customHeight="1">
@@ -12623,7 +12625,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -12633,627 +12635,603 @@
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B2" s="7">
+      <c r="A2" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B2" s="9">
         <v>2018</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="9">
         <v>2018</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>422</v>
+      <c r="A4" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>424</v>
+      <c r="A5" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>426</v>
+      <c r="A6" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>428</v>
+      <c r="A7" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>430</v>
+      <c r="A8" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>432</v>
+      <c r="A9" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
         <v>438</v>
       </c>
+      <c r="I10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="9" t="s">
         <v>440</v>
       </c>
+      <c r="B11" s="9" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>442</v>
       </c>
+      <c r="B12" s="9" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>450</v>
       </c>
+      <c r="B15" s="9" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="B16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>462</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>465</v>
       </c>
+      <c r="E20" s="2" t="s">
+        <v>466</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>465</v>
-      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="C22" s="2" t="s">
         <v>471</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="9"/>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>473</v>
       </c>
+      <c r="B24" s="9" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="9"/>
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="B26" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D26" s="10" t="s">
+      <c r="B26" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="C26" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>477</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="B27" s="10" t="s">
+      <c r="A27" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C27" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="B27" s="2" t="s">
         <v>480</v>
       </c>
+      <c r="C27" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="28" ht="12.800000000000001" customHeight="1">
-      <c r="A28" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="B28" s="10" t="s">
+      <c r="A28" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="B28" s="2" t="s">
         <v>483</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="29" ht="12.800000000000001" customHeight="1"/>
     <row r="30" ht="12.800000000000001" customHeight="1">
-      <c r="A30" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C30" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G30" s="10" t="s">
+      <c r="B30" s="2" t="s">
         <v>486</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="31" ht="12.800000000000001" customHeight="1">
-      <c r="A31" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G31" s="10" t="s">
+      <c r="B31" s="2" t="s">
         <v>489</v>
       </c>
+      <c r="C31" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="32" ht="12.800000000000001" customHeight="1">
-      <c r="A32" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="B32" s="10" t="s">
+      <c r="A32" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G32" s="10" t="s">
+      <c r="B32" s="2" t="s">
         <v>492</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="33" ht="12.800000000000001" customHeight="1">
-      <c r="A33" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B33" s="10" t="s">
+      <c r="A33" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10" t="s">
+      <c r="B33" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="H33" s="10" t="s">
+      <c r="C33" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10" t="s">
+      <c r="H33" s="2" t="s">
         <v>497</v>
       </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="34" ht="12.800000000000001" customHeight="1">
-      <c r="A34" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="B34" s="10" t="s">
+      <c r="A34" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C34" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D34" s="10" t="s">
+      <c r="B34" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="E34" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10" t="s">
+      <c r="H34" s="2" t="s">
         <v>502</v>
       </c>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2" t="s">
+        <v>503</v>
+      </c>
     </row>
     <row r="35" ht="14.15" customHeight="1">
-      <c r="A35" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="B35" s="10" t="s">
+      <c r="A35" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="B35" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="C35" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="J35" s="10" t="s">
+      <c r="G35" s="2" t="s">
         <v>507</v>
       </c>
+      <c r="J35" s="2" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="36" ht="12.800000000000001" customHeight="1">
-      <c r="A36" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="A36" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>505</v>
+      <c r="B36" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="37" ht="12.800000000000001" customHeight="1">
-      <c r="A37" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G37" s="10" t="s">
+      <c r="B37" s="2" t="s">
         <v>512</v>
       </c>
+      <c r="C37" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="38" ht="12.800000000000001" customHeight="1">
-      <c r="A38" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="A38" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="B38" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="C38" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10" t="s">
+      <c r="E38" s="2" t="s">
         <v>517</v>
       </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="39" ht="12.800000000000001" customHeight="1">
-      <c r="A39" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="B39" s="10" t="s">
+      <c r="A39" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="C39" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10" t="s">
+      <c r="B39" s="2" t="s">
         <v>520</v>
       </c>
+      <c r="C39" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="40" ht="12.800000000000001" customHeight="1">
-      <c r="A40" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>465</v>
+      <c r="B40" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="41" ht="12.800000000000001" customHeight="1">
-      <c r="A41" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="A41" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>461</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10" t="s">
+      <c r="B41" s="2" t="s">
         <v>525</v>
       </c>
+      <c r="C41" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="42" ht="12.800000000000001" customHeight="1">
-      <c r="A42" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="B42" s="10" t="s">
+      <c r="A42" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>465</v>
+      <c r="B42" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="43" ht="12.800000000000001" customHeight="1">
-      <c r="A43" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="B43" s="10" t="s">
+      <c r="A43" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C43" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
+      <c r="B43" s="2" t="s">
         <v>530</v>
       </c>
+      <c r="C43" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="44" ht="12.800000000000001" customHeight="1">
-      <c r="A44" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="B44" s="10" t="s">
+      <c r="A44" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="C44" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>465</v>
-      </c>
-    </row>
+      <c r="B44" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="45" ht="15" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78739999999999988" right="0.78739999999999988" top="1.3209" bottom="1.3209" header="1.0251999999999999" footer="1.0251999999999999"/>
+  <pageMargins left="0.78735200000000005" right="0.78735200000000005" top="2.3459199999999996" bottom="2.3459199999999996" header="1.3207800000000001" footer="1.3207800000000001"/>
   <pageSetup paperSize="9" scale="90" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter>
-    <oddHeader>&amp;11&amp;"Arial,Bold"&amp;A</oddHeader>
-    <oddFooter>&amp;11&amp;"Arial,Bold"Page &amp;11&amp;"Arial,Bold"&amp;P</oddFooter>
-    <evenHeader>&amp;11&amp;"Arial,Bold"&amp;A</evenHeader>
-    <evenFooter>&amp;11&amp;"Arial,Bold"Page &amp;11&amp;"Arial,Bold"&amp;P</evenFooter>
+    <oddFooter>Page 1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13265,11 +13243,11 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
+    <sheetView showGridLines="1" zoomScale="64" workbookViewId="0">
       <selection activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.130000000000001"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.621600000000001"/>
     <col customWidth="1" min="2" max="2" width="15.631"/>
@@ -13278,6 +13256,7 @@
     <col customWidth="1" min="5" max="5" width="19.9528"/>
     <col customWidth="1" min="6" max="6" width="28.6356"/>
     <col customWidth="1" min="7" max="1024" width="19.9528"/>
+    <col customWidth="1" min="1025" max="1125" width="8.6639999999999997"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.800000000000001" customHeight="1">
@@ -13303,7 +13282,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -13315,277 +13294,275 @@
     </row>
     <row r="2" ht="12.800000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="B3" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="E3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>543</v>
       </c>
+      <c r="I3" s="2" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="A4" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="10" t="s">
-        <v>545</v>
+      <c r="I4" s="2" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="A5" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="B5" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>548</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="A6" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="B6" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>551</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="A7" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="B7" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>554</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F8" s="10" t="s">
+      <c r="A8" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="B8" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>557</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="A9" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="B9" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="2" t="s">
         <v>561</v>
       </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="A10" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="B10" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>564</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="A11" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="B11" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>567</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="A12" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F12" s="10">
         <v>45871</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
+      <c r="G12" s="2" t="s">
         <v>570</v>
       </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F13" s="10" t="s">
+      <c r="A13" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="B13" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
+      <c r="G13" s="2" t="s">
         <v>574</v>
       </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E14" s="10" t="s">
+      <c r="A14" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="I14" s="10" t="s">
+      <c r="F14" s="2" t="s">
         <v>577</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="E15" s="10" t="s">
+      <c r="A15" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="F15" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
+      <c r="I15" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78739999999999988" right="0.78739999999999988" top="1.3209" bottom="1.3209" header="1.0251999999999999" footer="1.0251999999999999"/>
+  <pageMargins left="0.78735200000000005" right="0.78735200000000005" top="2.3459199999999996" bottom="2.3459199999999996" header="1.3207800000000001" footer="1.3207800000000001"/>
   <pageSetup paperSize="9" scale="90" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter>
-    <oddHeader>&amp;11&amp;"Arial,Bold"&amp;A</oddHeader>
-    <oddFooter>&amp;11&amp;"Arial,Bold"Page &amp;11&amp;"Arial,Bold"&amp;P</oddFooter>
-    <evenHeader>&amp;11&amp;"Arial,Bold"&amp;A</evenHeader>
-    <evenFooter>&amp;11&amp;"Arial,Bold"Page &amp;11&amp;"Arial,Bold"&amp;P</evenFooter>
+    <oddFooter>Page 1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -13597,7 +13574,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
+    <sheetView showGridLines="1" zoomScale="64" workbookViewId="0">
       <selection activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -13614,6 +13591,7 @@
     <col customWidth="1" min="9" max="9" width="45.325000000000003"/>
     <col customWidth="1" min="10" max="10" width="107.614"/>
     <col customWidth="1" min="11" max="1024" width="32.4968"/>
+    <col customWidth="1" min="1025" max="1125" width="8.6639999999999997"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.800000000000001" customHeight="1">
@@ -13639,10 +13617,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>10</v>
@@ -13651,26 +13629,26 @@
     </row>
     <row r="2" ht="12.800000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -13678,141 +13656,141 @@
     </row>
     <row r="3" ht="12.800000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="4" ht="12.800000000000001" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" ht="12.800000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G5" s="3">
         <v>1990</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" ht="12.800000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" ht="12.800000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>23</v>
@@ -13824,59 +13802,59 @@
         <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" ht="12.800000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" ht="12.800000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G9" s="3">
         <v>89</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -13884,67 +13862,67 @@
     </row>
     <row r="10" ht="12.800000000000001" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11" ht="12.800000000000001" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" ht="12.800000000000001" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>285</v>
@@ -13953,97 +13931,95 @@
         <v>235</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" ht="12.800000000000001" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>350</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" ht="12.800000000000001" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>170</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15" ht="12.800000000000001" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
+        <v>638</v>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78739999999999988" right="0.78739999999999988" top="1.3209" bottom="1.3209" header="1.0251999999999999" footer="1.0251999999999999"/>
+  <pageMargins left="0.78735200000000005" right="0.78735200000000005" top="2.3459199999999996" bottom="2.3459199999999996" header="1.3207800000000001" footer="1.3207800000000001"/>
   <pageSetup paperSize="9" scale="90" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter>
-    <oddHeader>&amp;11&amp;"Arial,Bold"&amp;A</oddHeader>
-    <oddFooter>&amp;11&amp;"Arial,Bold"Page &amp;11&amp;"Arial,Bold"&amp;P</oddFooter>
-    <evenHeader>&amp;11&amp;"Arial,Bold"&amp;A</evenHeader>
-    <evenFooter>&amp;11&amp;"Arial,Bold"Page &amp;11&amp;"Arial,Bold"&amp;P</evenFooter>
+    <oddFooter>Page 1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -14055,7 +14031,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
+    <sheetView showGridLines="1" zoomScale="64" workbookViewId="0">
       <selection activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -14071,6 +14047,7 @@
     <col customWidth="1" min="8" max="8" width="20.815200000000001"/>
     <col customWidth="1" min="9" max="9" width="49.940800000000003"/>
     <col customWidth="1" min="10" max="1024" width="11.0152"/>
+    <col customWidth="1" min="1025" max="1125" width="8.6639999999999997"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.800000000000001" customHeight="1">
@@ -14078,7 +14055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -14102,21 +14079,21 @@
         <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" ht="12.800000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>98</v>
@@ -14125,64 +14102,64 @@
         <v>170</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="H2" s="6">
+        <v>644</v>
+      </c>
+      <c r="H2" s="5">
         <v>34486</v>
       </c>
     </row>
     <row r="3" ht="12.800000000000001" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="H3" s="6"/>
+        <v>646</v>
+      </c>
+      <c r="H3" s="5"/>
       <c r="I3" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="4" ht="12.800000000000001" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="5" ht="12.800000000000001" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -14191,47 +14168,47 @@
         <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" ht="12.800000000000001" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>285</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" ht="12.800000000000001" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>12</v>
@@ -14240,24 +14217,24 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="8" ht="12.800000000000001" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -14266,448 +14243,446 @@
         <v>23</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" ht="12.800000000000001" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G9" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H9" s="5">
+        <v>38193</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="H9" s="6">
-        <v>38193</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>667</v>
-      </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="2" t="s">
         <v>670</v>
       </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="10" t="s">
-        <v>671</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10" t="s">
+      <c r="A11" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>672</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>668</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="F11" s="2" t="s">
         <v>673</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>674</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="A12" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10" t="s">
+      <c r="H12" s="2" t="s">
         <v>677</v>
       </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>678</v>
+      </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="10" t="s">
-        <v>678</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10" t="s">
+      <c r="A13" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10" t="s">
+      <c r="G13" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
         <v>681</v>
       </c>
+      <c r="J13" s="2" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10" t="s">
+      <c r="A14" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="G14" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="2" t="s">
         <v>686</v>
       </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="F15" s="10" t="s">
+      <c r="A15" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="B15" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="G15" s="2" t="s">
         <v>690</v>
       </c>
+      <c r="J15" s="2" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="10" t="s">
-        <v>691</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10" t="s">
+      <c r="A16" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="10" t="s">
-        <v>692</v>
-      </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10" t="s">
+      <c r="F16" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10" t="s">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
         <v>694</v>
       </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="10" t="s">
-        <v>695</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>664</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="A17" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="B17" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>697</v>
       </c>
+      <c r="I17" s="2" t="s">
+        <v>698</v>
+      </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="10" t="s">
-        <v>698</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="A18" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10" t="s">
+      <c r="B18" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F18" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="C19" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
+      <c r="G19" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="10" t="s">
-        <v>704</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10" t="s">
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F20" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>705</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="10" t="s">
-        <v>707</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10" t="s">
+      <c r="C21" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F21" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>708</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="10" t="s">
-        <v>710</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10" t="s">
+      <c r="C22" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F22" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G21" s="10" t="s">
-        <v>711</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="10" t="s">
-        <v>713</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10" t="s">
+      <c r="C23" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F23" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>714</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="10" t="s">
-        <v>716</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10" t="s">
+      <c r="C24" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>702</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="10" t="s">
-        <v>719</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>699</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>700</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>720</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="F24" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10" t="s">
+      <c r="H24" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.78739999999999988" right="0.78739999999999988" top="1.3209" bottom="1.3209" header="1.0251999999999999" footer="1.0251999999999999"/>
+  <pageMargins left="0.78735200000000005" right="0.78735200000000005" top="2.3459199999999996" bottom="2.3459199999999996" header="1.3207800000000001" footer="1.3207800000000001"/>
   <pageSetup paperSize="9" scale="90" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter>
-    <oddHeader>&amp;11&amp;"Arial,Bold"&amp;A</oddHeader>
-    <oddFooter>&amp;11&amp;"Arial,Bold"Page &amp;11&amp;"Arial,Bold"&amp;P</oddFooter>
-    <evenHeader>&amp;11&amp;"Arial,Bold"&amp;A</evenHeader>
-    <evenFooter>&amp;11&amp;"Arial,Bold"Page &amp;11&amp;"Arial,Bold"&amp;P</evenFooter>
+    <oddFooter>Page 1</oddFooter>
   </headerFooter>
 </worksheet>
 </file>